--- a/static/downloads/77 Bưu điện Trung tâm Củ Chi.xlsx
+++ b/static/downloads/77 Bưu điện Trung tâm Củ Chi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>734001_maintt_t</t>
+          <t>731300_yenhh_t</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>731300_yenhh_t</t>
+          <t>733701_tuyen_g</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>733701_tuyen_g</t>
+          <t>733400_sau_g</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>734300_thuydt</t>
+          <t>731300_yenhh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>733200_thuy_t</t>
+          <t>734900_daohth</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>733400_sau_g</t>
+          <t>733530_daohth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>731300_yenhh</t>
+          <t>731900_g731071</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>734400_phuong_t</t>
+          <t>731000_thuongth</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>734900_daohth</t>
+          <t>731900_oanhvdt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>731100_TBC</t>
+          <t>731000_g727025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>733530_daohth</t>
+          <t>733000_ngapt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>731500_lannn</t>
+          <t>731000_g721334</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>734300_phuonghh</t>
+          <t>733060_g740174</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>731900_g731071</t>
+          <t>731000_g758409</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>731000_thuongth</t>
+          <t>732110_g731071</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>731900_oanhvdt</t>
+          <t>731000_g740174</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>733060_canhtt</t>
+          <t>731624_g731071</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>731000_g727025</t>
+          <t>731000_g760390</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>733000_ngapt</t>
+          <t>734900_thuttm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>731000_g721334</t>
+          <t>734800_suonghtt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>733060_g740174</t>
+          <t>731000_g760130</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>731000_g758409</t>
+          <t>733600_g733038</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>734300_g731071</t>
+          <t>731000_g763430</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>734300_g721344</t>
+          <t>731000_mientt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>734300_g763430</t>
+          <t>731000_g710235</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>732110_g731071</t>
+          <t>733530_g733038</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,142 +760,10 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>731000_g740174</t>
+          <t>731000_g721344</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>731624_g731071</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>731000_g760390</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>734900_thuttm</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>734800_suonghtt</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>731000_g760130</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>733600_g733038</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>731000_g763430</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>731000_mientt</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>731000_g710235</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>733530_g733038</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>77_Bưu điện Trung tâm Củ Chi</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>731000_g721344</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
         <is>
           <t>77_Bưu điện Trung tâm Củ Chi</t>
         </is>
